--- a/VerveStacks_FIN/vt_vervestacks_FIN_v1.xlsx
+++ b/VerveStacks_FIN/vt_vervestacks_FIN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC1BC50-B87B-408E-A2B9-4EDD0025885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD61E00-FBF8-4164-9E30-66015278ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{680490D8-2EE1-453C-B160-8A7DD555BC76}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B45BD0DD-F34E-4437-850B-17D673DC436C}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -859,7 +859,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83BBF60-C48E-1032-A46F-E54D47205667}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4141EE92-3133-32EC-3ACE-B9F44B430B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +914,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCD8707-92E6-A88C-B9BC-825983CCB208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1B480C-0552-282E-31C3-A5DCFAB28404}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED84C4F6-9272-4124-A70F-AFFAAECA7305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE4CE43-23FB-4FD1-9A19-31C3916FB587}">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2823,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BDFEB3-A009-4B56-8FE3-E2884438312F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB2BEAD-3B3D-49AF-9B8F-A516110EA0E6}">
   <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_FIN/vt_vervestacks_FIN_v1.xlsx
+++ b/VerveStacks_FIN/vt_vervestacks_FIN_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AD61E00-FBF8-4164-9E30-66015278ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACB328C-4F02-4BE4-8E26-6D8E711677B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B45BD0DD-F34E-4437-850B-17D673DC436C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D733AC56-A442-4F69-B3DB-3DEE02774C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -859,7 +859,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4141EE92-3133-32EC-3ACE-B9F44B430B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A19E66E-36CC-77A3-3AE0-099991A034C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,7 +914,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1B480C-0552-282E-31C3-A5DCFAB28404}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC55902F-A480-AF60-8713-236A7FFEA99C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE4CE43-23FB-4FD1-9A19-31C3916FB587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E78093-0A54-4212-931D-49AA9EB92CB3}">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2823,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB2BEAD-3B3D-49AF-9B8F-A516110EA0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF6CE96-ACB3-43DC-94F1-3E6475431CD4}">
   <dimension ref="A1:T125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
